--- a/biology/Botanique/Chêne_de_Granit/Chêne_de_Granit.xlsx
+++ b/biology/Botanique/Chêne_de_Granit/Chêne_de_Granit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Granit</t>
+          <t>Chêne_de_Granit</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le chêne de Granit (Гранитски дъб en bulgare) est un chêne pédonculé situé au centre du village du Granit. Il est réputé comme étant le plus vieux chêne de Bulgarie et est classé monument historique depuis 1967.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%AAne_de_Granit</t>
+          <t>Chêne_de_Granit</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son âge est estimé à 1 679 ans ce qui en fait le plus vieil arbre de Bulgarie et l'un des plus vieux d'Europe. Sa hauteur est de 23,4 m et sa circonférence atteint les 7,46 m à 1 m du sol. Seules les branches de la partie Est de l'arbre sont toujours vivantes. L'arbre a été restauré avec des plaques de cuivre en mars 1982.
 </t>
